--- a/src/my_rag/evaluations/results/rag_evaluations_embedder_dunzhang_stella_en_1.5B_v5_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_PubMed filtered Dataset.xlsx
+++ b/src/my_rag/evaluations/results/rag_evaluations_embedder_dunzhang_stella_en_1.5B_v5_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_PubMed filtered Dataset.xlsx
@@ -478,14 +478,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, long non-coding RNAs (lncRNAs) tend to be spliced less efficiently and often later than protein-coding mRNAs. Specifically:
-1. The coSI (co-transcriptional splicing index) values of lncRNA exons are dramatically lower than those of coding exons in the total chromatin fraction, indicating less co-transcriptional splicing.
-2. LncRNAs show lower splicing completion than mRNAs at the gene level in the total chromatin fraction.
-3. The difference in splicing between lncRNAs and mRNAs persists in the nuclear polyA+ fraction, suggesting lncRNAs are often spliced later and sometimes might not be spliced at all.
-4. Some well-known lncRNAs like AIRN and KCNQ1OT1 are reported to remain predominantly unspliced.
-5. The authors suggest that for lncRNAs, some splicing events are carried out post-transcriptionally, some lncRNAs remain completely unspliced, and some have a high proportion of unspliced transcripts with only a minority being spliced.
-6. However, the analysis was done on a small subset of highly expressed lncRNAs, so caution is needed in generalizing these findings.
-In summary, while some lncRNAs are spliced, they tend to be spliced less efficiently and often later than mRNAs, with some potentially remaining unspliced. The splicing behavior seems to vary among different lncRNAs.</t>
+          <t>Based on the context provided, long non-coding RNAs (lncRNAs) do undergo splicing, but often to a lesser extent than protein-coding mRNAs. Specifically:
+1. Most lncRNAs are spliced (98%), but they tend to have fewer exons than protein-coding genes - 42% of lncRNA transcripts have only two exons, compared to 6% of protein-coding genes.
+2. Over 25% of lncRNA genes show evidence of alternative splicing, with at least two different transcript isoforms per gene locus.
+3. The vast majority of lncRNA introns are flanked by canonical splice sites (GT/AG), similar to protein-coding genes.
+4. However, lncRNAs show lower splicing completion rates compared to mRNAs, both at the exon level and gene level, in chromatin-associated RNA fractions. This suggests lncRNAs are often spliced later or sometimes might not be spliced at all.
+5. Some well-known lncRNAs like AIRN and KCNQ1OT1 are reported to remain predominantly unspliced.
+6. The authors suggest that for many lncRNAs, either they remain completely unspliced, or a high proportion of primary transcripts are never spliced while a minority are processed by the splicing machinery.
+In summary, while most lncRNAs do undergo splicing, they tend to be spliced less efficiently and extensively compared to mRNAs, with some lncRNAs potentially remaining unspliced. The splicing dynamics of lncRNAs appear to be more variable than those of protein-coding genes.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['10.1101_gr.134445.111.pdf', '10.3389_fncel.2013.00168.pdf', '10.1101_gr.134445.111.pdf', '10.1101_gr.134445.111.pdf', '10.1101_gr.134445.111.pdf']</t>
+          <t>['10.1101_gr.132159.111.pdf', '10.1101_gr.134445.111.pdf', '10.3389_fncel.2013.00168.pdf', '10.1101_gr.134445.111.pdf', '10.1101_gr.134445.111.pdf']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['calculate a coSI score with confidence (see Supplemental Methods).\nNevertheless, the coSI data presented here will be a valuable tool\nfor subclassifying lncRNAs by their processing status.\nIn summary, we believe that our results strongly suggest that\nsplicing is a highly co-transcriptional process, whose outcome de-\npends crucially on many factors in the exon, and the overall gene\nsequence, as well as on chromatin architecture and transcription\ndynamics. As our analysis reveals here, the interrogation of RNA\nfractions provides invaluable information on the processing path-\nways establishing RNA genealogy.\nData access\nSupplemental Table S1 can be acce ssed at http://genome.crg.es/\n;htilgner/2011_coSI_paper/2011cp_index.html. Raw RNA-seq reads\ncan be accessed at the NCBI Gene Expression Omnibus (GEO)(http://www.ncbi.nlm.nih.gov/ g e o / )u n d e ra c c e s s i o nn u m b e r s\nGSE30567 and GSE24565. Additional detailed methods for RNA-seqcan be obtained in the production documents under ‘‘CSHL LongRNA-seq’’ and ‘‘CSHL Sm RNA-seq’’ at http://genome.ucsc.edu/\nENCODE/downloads.html.\nCompeting interest statement\nMichael Snyder is a consultant for Illumina and on the scientific\nadvisory board of Personalis and GenapSys.\nAcknowledgments\nWe thank Juan Valca ´rcel and Tobias Warnecke from the CRG for\nuseful discussions. This work has been carried out under grantsRD07/0067/0012, BIO2006-03380, and CSD2007-00050 from theSpanish Ministry of Science, and grants 1U54HG004557-01 and\n1U54HG004555-01 from the National Institutes of Health.\nReferences\nAllo M, Buggiano V , Fededa JP, Petrillo E, Schor I, de la Mata M, Agirre E, Plass\nM, Eyras E, Elela SA, et al. 2009. Control of alternative splicing through\nsiRNA-mediated transcriptional gene silencing. Nat Struct Mol Biol 16:\n717–724.\nAmeur A, Zaghlool A, Halvardson J, Wetterbom A, Gyllensten U, Cavelier L,\nFeuk L. 2011. Total RNA sequencing reveals nascent transcription and\nwidespread co-transcriptional splicing in the human brain. Nat Struct\nMol Biol 18:1435–1440.\nAndersson R, Enroth S, Rada-Iglesias A, Wadelius C, Komorowski J. 2009.\nNucleosomes are well positioned in exons and carry characteristic\nhistone modifications. Genome Res 19:1732–1741.\nBarash YCJ, Gao W, Pan Qu, Wang X, Shai O, Blencowe J, Frey B. 2010.\nDeciphering the splicing code. Nature 465: 53–59.\nBarski A, Cuddapah S, Cui K, Roh TY, Schones DE, Wang Z, Wei G, Chepelev\nI, Zhao K. 2007. High-resolution profiling of histone methylations in the\nhuman genome. Cell129: 823–837.\nBeyer AL, Osheim YN. 1988. Splice site selection, rate of splicing, and\nalternative splicing on nascent transcripts. Genes Dev 2:754–765.\nCarrillo Oesterreich F, Preibisch S, Neugebauer KM. 2010. Global analysis of\nnascent RNA reveals transcriptional pausing in terminal exons. Mol Cell\n40:571–581.\nCramer P, Pesce CG, Baralle FE, Kornblihtt AR. 1997. Functional association\nbetween promoter structure and transcript alternative splicing. Proc Natl\nAcad Sci 94:11456–11460.\nde la Mata M, Alonso CR, Kadener S, Fededa JP, Blaustein M, Pelisch F,\nCramer P, Bentley D, Kornblihtt AR. 2003. A slow RNA polymerase II\naffects alternative splicing in vivo. Mol Cell 12:525–532.\nde la Mata M, Lafaille C, Kornblihtt AR. 2010. First come, first served\nrevisited: Factors affecting the same alternative splicing event havedifferent effects on the relative rates of intron removal. RNA 16:904–\n912.Tilgner et al.\n1624 Genome Research\nwww.genome.org Cold Spring Harbor Laboratory Press  on October 29, 2024 - Published by genome.cshlp.org Downloaded from \nDerrien T, Johnson R, Bussotti G, Tanzer A, Djebali S, Tilgner H, Guernec G,\nMartin D, Merkel A, Knowles DG, et al. 2012. The GENCODE v7 catalog\nof human long noncoding RNAs: Analysis of their gene structure,evolution, and expression. Genome Res (this issue). doi: 10.1101/\ngr.132159.111.\nDjebali S, Davis CA, Merkel A, Dobin A, Lassmann T, Mortazavi AM, Tanzer', '“fncel-07-00168” — 2013/9/30 — 16:47 — pag e1—# 1REVIEW ARTICLE\npublished: 02 October 2013\ndoi: 10.3389/fncel.2013.00168\nIdentiﬁcation and function of long non-coding RNA\nCarl Ernst1,2* and Cynthia C. Morton3,4, 5\n1Douglas Hospital Research Institute, Montreal, QC, Canada\n2Department of Psychiatry, McGill University, Montreal, QC, Canada\n3Department of Obstetrics, Gynecology and Reproductive Biology, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA, USA\n4Department of Pathology, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA, USA\n5Medical and Population Genetics Program, The Broad Institute of M.I.T . and Harvard, Cambridge, MA, USA\nEdited by:\nT ommaso Pizzorusso, Istituto\nNeuroscienze Consiglio Nazionale\ndelle Ricerche, Italy\nReviewed by:\nJanine LaSalle, University of California\nDavis Medical School, USABeatrice Bodega, Istituto Nazionale diGenetica Molecolare, Italy\n*Correspondence:\nCarl Ernst, Douglas Hospital ResearchInstitute, 6875 LaSalle Boulevard,Frank Common Building, Room2101 .2, Montreal, QC H4H 1R3,Canadae-mail: carl.ernst@mcgill.caLong non-coding (lnc) RNAs are deﬁned as non-protein coding RNAs distinct from\nhousekeeping RNAs such as tRNAs, rRNAs, and snRNAs, and independent from smallRNAs with speciﬁc molecular processing machinery such as micro- or piwi-RNAs. Recentstudies of lncRNAs across different species have revealed a diverse population of RNAmolecules of differing size and function. RNA sequencing studies suggest transcription\nthroughout the genome, so there is a need to understand how sequence relates to\nfunctional and structural relationships amongst RNA molecules. Our synthesis of recentstudies suggests that neither size, presence of a poly-A tail, splicing, direction oftranscription, nor strand speciﬁcity are of importance to lncRNA function. Rather, relativegenomic position in relation to a target is fundamentally important. In this review, wedescribe issues of key importance in functional assessment of lncRNA and how this mightapply to lncRNAs important in neurodevelopment.\nKeywords: non-coding RNA, epigenetics, gene regulation, neurodevelopment\nTHERE IS A WIDE VARIETY OF NON-CODING RNA IN MANY\nSPECIES\nThe co-occurrence of massively parallel sequencing technology\napplied to RNA and the recognition that non-coding, functionalRNA species may not be restricted to X-chromosome inactivation(Jeon et al., 2012; Batista and Chang, 2013 ) or to protein synthesis\nmachinery, have revealed an RNA universe of remarkable diver-sity in plant and animal cells. Non-coding (nc) RNAs, those RNA\nmolecules that are not templates for protein synthesis, make up a\nlarge portion of the total RNA in the cell suggesting a profoundfunctional importance. Despite their abundance, few ncRNAs havebeen studied and even fewer have been functionally characterized.These ncRNAs come in many forms: they can be very small orseveral hundred kilobases long; they may be spliced or unspliced;they can form linear or tertiary structures; they may or may nothave a poly-A tail, and some interact with DNA, protein, or otherRNA molecules (Novikova et al., 2013 ). As is described in this\nreview, among various roles, Long non-coding (lnc) RNAs partic-\nipate in guidance of large protein complexes to DNA leading to\ninﬂuence over locus-speciﬁc gene expression, and in the modiﬁ-cation of expression or abundance of complementary messengerRNA strands. The wide diversity of function and form of ncRNA,combined with the explosive growth in newly identiﬁed ncRNAmolecules, has lead to a need to understand better potential rela-tionships of function between ncRNA and to consider a morecategorical approach to classiﬁcation.\nNon-protein coding RNA has long been recognized in cells.\nTransfer RNAs and ribosomal RNAs were identiﬁed over 50 yearsago; neither encodes a peptide chain, though they are integral\ncomponents of the machinery for protein synthesis. Identiﬁcation', 'investigate the splicing dynamics of lncRNAs (see Supplemental\nMethods; Derrien et al. 2012). We find that coSI values of lncRNAexons, as a class, but also those of well-investigated lncRNAs ( H19,\nXIST,U50HG_SNHG5 ) are dramatically lower than those of coding\nexons in the total chromatin fraction (Fig. 6D). Also in terms of\ncompleted splicing of the entire RNA, that is, on the gene-coSIFigure 4. An RPM was calculated based on short RNA-seq in each subcellular fraction—total chromatin fraction (CHR; red), total cytoplasmic fraction\n(CYT; yellow), total nucleoli fraction (NL; green), total nucleoplasmic fraction (NP; light blue), total nuclear fraction (NUC; purple), total whole-cell\nfraction (WC; pink)—and summed for all genes encoding for U1-RNA ( A), U2-RNA ( B), U3-RNA ( C), U4-RNA ( D), U5-RNA ( E), U6 RNA ( F), U6atac ( G), and\nnon–U-RNA snoRNAs ( H).Widespread co-transcriptional splicing in humans\nGenome Research 1621\nwww.genome.org Cold Spring Harbor Laboratory Press  on October 29, 2024 - Published by genome.cshlp.org Downloaded from \nlevel, lncRNAs show lower splicing completion then mRNAs in the\ntotal chromatin fraction (Fig. 6E). The difference between lncRNA\nexons and mRNA exons persists in the nuclear polyA +fraction\n(Fig. 6F), arguing that lncRNAs are often spliced later and some-times might even not be spliced at all. This is consistent with re-\nports that some lncRNAs remain predominantly unspliced, for\nexample, AIRN and KCNQ1OT1 (Sleutels et al. 2002; Mancini-\nDinardo et al. 2006).\nDiscussion\nCo-transcriptional splicing has recently been shown to be wide-\nspread in the intron-poor genome of S. cerevisiae ( Carrillo Oesterreich\net al. 2010 ). In higher eukaryotes, co-transcriptional splicing has\nbeen documented in detail for a few individual genes such as fibro-\nnectin and SRC(Cramer et al. 1997; Kadener et al. 2001; de la Mata\net al. 2003; Pandya-Jones and Black 2009), and this mode of intronremoval has been proposed to be widespread in the human brain,\nbased on analysis of whole-cell, total RNA-seq (Ameur et al. 2011).\nWhile we coincide on the claim of widespread co-transcriptionalsplicing, our approach of analyzing RNA-seq data in a variety of\nfractions provides major advantages: First, we are able to clearly\nseparate cytosolic RNAs, nuclear RNAs, as well as a special subset of\nthe latter, RNAs that still reside on the chromatin template. Thus\nwe demonstrate that spliced reads and exonic reads in the latter\nfraction are not the result of completely spliced RNAs, which still\nremain in cytosol (or nucleus) and not on the chromatin. Second,\nwe can define, for single exons, what proportion of their surround-\ning introns is removed co-transcriptionally or after polyadenylation\nwhile controlling for intron retention with cytosolic RNA-seq. This\nwe can achieve, by introducing an exon-based measure of splicing\ncompletion: This measure, the coSI, shows that most introns initiate\nsplicing while the RNA is still associated with the chromatin—\nstrongly suggesting that co-transcriptional splicing is also the dom-\ninant mode in the human genome. Consistent with this, we\nhave found significant enrichment of spliceosomal snRNAs inchromatin-associated RNA compared with other cellular RNA frac-\ntions and other nonspliceosomal snRNAs. This supports the idea\nthat exons, around which we detect a tendency for postTS, might\nalready have been committed to splicing co-transcriptionally. Al-\nFigure 5. Linear model connecting exon-coSI values to gene, exon, and chromatin structure variables. ( A) Smoothed scatterplot and correlation\nbetween predicted coSI values and measured coSI values using the entire model. ( B) Correlation of predicted coSI values and measured coSI values using\nfour increasing subsets of variables and the entire model: model with distance to TSS and distance to polyA site (pos); model additionally including a cceptor', 'Indeed, we detect enrichment of a variety of chromatin marks on\nexons in the process of being spliced (i.e., exons, with low coSI\nvalues in the chromatin-associated RNA).\nWhile proximity to the polyA site seems to disfavor co-\ntranscriptional splicing near the end of the gene, other features such\nas 59-to-39decreasing intron size and increasing splice site strength\nfavor rapid splicing, so that comparatively high co-transcriptionalsplicing completion can still be observed toward the 3 9end of the\ngene. Moreover, it is known that various histone marks vary alongthe gene (Barski et al. 2007). Such a special chromatin organization\ntoward the 3 9end of the gene could also contribute either directly\nor indirectly to splicing completion prior to polyadenylation.\nInterestingly, gene expression of nuclear polyA +RNAs is a\nweak but significant predictor of coSI values in the chromatin totalfraction, suggesting a selective pressure for splicing in more highly\nexpressed genes occurs more rapidly. Splicing around coding exons\nis significantly more often co-transcriptional (in comparison to\nexons containing noncoding sequence), while splicing around\nalternatively skipped exons is significantly more post-transcriptional\n(than for exons not involved in skipping events). Importantly, this\ndoes not imply that for all alternative exons splicing of the corre-\nsponding introns always occurs post-transcriptionally. Rather, it\nmeans that while only a few introns surrounding constitutive\nexons are removed post-transcriptionally, a significantly higher\nfraction of introns surrounding (or skipping) alternative exons areremoved post-transcriptionally. This genome-wide picture sup-\nposedly represents a mixture of two models observed on the fi-\nbronectin gene (de la Mata et al. 2010) and on the Sxland PTBP2\n(also known as nPTB ) genes (Vargas et al. 2011). In the former case,\nchanged exon inclusion levels were achieved without changing\nthe relative timing of actual intron removal but, supposedly, rather\nby changing splicing commitment co-transcriptionally (de la Mata\net al. 2010). In the latter, however, exon inclusion occurred when\nsplicing was co-transcriptional, whereas the exon was skipped\nwhen splicing was carried out post-transcriptionally (Vargas et al.\n2011). One interpretation for these and our observations is that\nco-transcriptional splicing tends to be more faithful than postTS,\nwhich would therefore offer more opportunities for an exon to be\nalternatively, that is, differently, included. An interesting corollary\nof this idea is that when a shorter-than-usual isoform of a gene is\nexpressed, some introns around internal exons might be spliced\nmore often post-transcriptionally, as they are closer to the chosen\npolyA site. This could then lead to changed inclusion rates of the\nexon.\nLower coSI values for lncRNAs can be interpreted in multiple\nways, all of which probably apply to different subsets of this rather\nheterogeneous RNA class. Some splicing events in lncRNAs are\nprobably carried out later, that is, post-transcriptionally, simply\nbecause lncRNA gene features (e.g., shorter gene length, lower ex-\npression) favor this mode of splicing. It is highly likely given the data\npresented here and previously described examples, that many\nlncRNAs either (1) remain completely unspliced or (2) have a high\nproportion of primary transcripts that are never spliced, while a\nminority are processed by the splicing machinery. For example,\ntwo lncRNAs involved in imprinting are likely to remain in the\nnucleus in an unspliced state: AIRN (Sleutels et al. 2002) and\nKCNQ1OT1 (Mancini-Dinardo et al. 2006). However, our data should\nbe treated with caution, since the analysis was carried out on thesmall subset of lncRNAs that are expressed sufficiently highly to\ncalculate a coSI score with confidence (see Supplemental Methods).\nNevertheless, the coSI data presented here will be a valuable tool\nfor subclassifying lncRNAs by their processing status.', 'Research\nDeep sequencing of subcellular RNA fractions shows\nsplicing to be predominantly co-transcriptionalin the human genome but inefficient for lncRNAs\nHagen Tilgner,1,3David G. Knowles,1Rory Johnson,1Carrie A. Davis,2\nSudipto Chakrabortty,2Sarah Djebali,1Jo~ao Curado,1Michael Snyder,3\nThomas R. Gingeras,2and Roderic Guigo ´1,4\n1Centre for Genomic Regulation (CRG) and UPF, E-08003, Barcelona, Catalonia, Spain;2Cold Spring Harbor Laboratory, Cold Spring\nHarbor, New York 11724, USA;3Department of Genetics, Stanford University School of Medicine, Stanford, California 94305, USA\nSplicing remains an incompletely understood process. Recent findings suggest that chromatin structure participates in its\nregulation. Here, we analyze the RNA from subcellular fractions obtained through RNA-seq in the cell line K562. We\nshow that in the human genome, splicing occurs predominantly during transcription. We introduce the coSI measure,\nbased on RNA-seq reads mapping to exon junctions and borders, to assess the degree of splicing completion aroundinternal exons. We show that, as expected, splicing is almost fully completed in cytosolic polyA +RNA. In chromatin-\nassociated RNA (which includes the RNA that is being transcribed), for 5.6% of exons, the removal of the surroundingintrons is fully completed, compared with 0.3% of exons for which no intron-removal has occurred. The remaining exonsexist as a mixture of spliced and fewer unspliced molecules, with a median coSI of 0.75. Thus, most RNAs undergo splicingwhile being transcribed: ‘‘co-transcriptional splicing.’’ Consistent with co-transcriptional spliceosome assembly and\nsplicing, we have found significant enrichment of spliceosomal snRNAs in chromatin-associated RNA compared with\nother cellular RNA fractions and other nonspliceosomal snRNAs. CoSI scores decrease along the gene, pointing to a ‘‘firsttranscribed, first spliced’’ rule, yet more downstream exons carry other characteristics, favoring rapid, co-transcriptional\nintron removal. Exons with low coSI values, that is, in the process of being spliced, are enriched with chromatin marks,\nconsistent with a role for chromatin in splicing during transcription. For alternative exons and long noncoding RNAs,splicing tends to occur later, and the latter might remain unspliced in some cases.\n[Supplemental material is available for this article.]\nCentral in the pathway leading from primary transcripts to mature\nfunctional RNAs is splicing, the process by which intervening se-\nquences in the primary transcript (introns) are excised and the\nremaining sequences (exons) are concatenated together to form\nthe mature eukaryotic RNAs. Conserved sequence motifs, the\nsplice sites, mark exon–intron boundaries and are recognized by\nelements of the splicing machinery. Splice site sequences, how-\never, do not carry enough information to unequivocally specify\nexon–intron boundaries, and a plethora of other sequence motifs,\nrecognized by a variety of RNA binding proteins, contribute to\ndefine and regulate splice site selection (Graveley 2000; Smith and\nValca´rcel 2000; Wang and Burge 2008). While there have been\nconsiderable advances in modeling splicing from features in theprimary transcript sequence (Wang et al. 2004; Barash et al. 2010),\nit is currently close to impossible to predict from the analysis of\nmammalian primary RNA sequence alone neither the entire exon–\nintron structure of transcripts no r their tissue specific expression\npattern (i.e., the abundance of g iven transcript in a given cell\ntype).\nIt appears thus that other factors, not necessarily encoded in\nthe sequence of the primary transcript, may play a role in splicingdefinition. Indeed, there is a growing body of evidence suggesting\nthat chromatin structure could play a role in splicing. A number of\nreports have demonstrated that eukaryotic exonic sequences are\nenriched in positioned nucleosomes and that some histone mod-\nifications show characteristic exonic patterns (Andersson et al.']</t>
+          <t>['canonical splice site signals, and alternative splicing\nMost LncRNAs are spliced (98%), but they show a striking ten-\ndency to have only two exons (42% of lncRNA transcripts have\nonly two exons compared with 6% of protein-coding genes) (Fig\n3A). This does not seem to be an artifact of lncRNA’s low expres-\nsion, or poor annotation, since even subsets with experimental\nsupport for their 5 9and 39boundaries exhibit this effect (Fig. 3A).\nWhile lncRNA exons are slightly longer than those of protein-coding transcripts (medians 149 and 132 bp, respectively; t-test,\nP-value =0.00014), introns from lncRNAs are longer that those\nfrom protein-coding genes (medians 2280 bp and 1602 bp, re-\nspectively: t-test, P-value &lt;2.2310\n/C016) (Fig. 3B). Because they have\nless exons, overall lncRNA transcripts are shorter than protein-coding (median 592 bp compared with 2453bp for protein-coding\ntranscript; t-test, P-value &lt;2.2310\n/C016) (Fig. 3C). Interestingly, the\nlongest lncRNA is NEAT1 , a single-exon lincRNA of 22.7 kb, which\nwas recently shown to be necessary for the formation of nuclear\nparaspeckles (Sunwoo et al. 2009). In addition, &gt;25% of lncRNA\ngenes show evidence of alternative splicing with at least two dif-ferent transcript isoforms per gene locus (Fig. 3D). The most highly\nspliced lncRNA gene is PCBP1-AS1 with 40 annotated isoforms.This human lncRNA gene is situated at a complex locus with major\ngene structure differences between human and mouse orthologs\n(Supplemental Fig. S3).\nThe vast majority of lncRNA introns are flanked by canonical\nsplices sites (GT/AG), and we find no differences in splicing signal\nusage compared with protein-coding genes (Supplemental Table S4;\nSupplemental Fig. S4). Finally, we have also identified 11 lncRNAs\nU12 introns (Alioto 2007) within the lncRNA catalog, of which\neight belong to intergenic lncRNAs (lincRNAs) and three are in\nantisense of protein-coding introns.\nHuman lncRNAs are under weaker selective constraints\nthan protein-coding genes, and many are primate specific\nPurifying selection of genomic sequence represents powerful evi-\ndence for functionality and, thus, we sought to assess whether the\nGENCODE lncRNAs have experienced such selection. We used the\nprecomputed, nucleotide-level calculations of evolutionary selec-\ntion provided by the phastCons algorithm (Siepel et al. 2005). By\nthis measure, lncRNA exons are significantly more conserved than\nneutrally evolving ancestral repeat (AR) sequences, albeit at lower\nlevels than protein-coding genes (Fig. 4A). These findings are in\nagreement with studies of other lncRNA catalogs (Ponjavic et al.\n2007; Guttman et al. 2009; Marques and Ponting 2009; Ørom et al.\n2010). We also compared the sequence conservation of different\nregions of lncRNA genes: promoters, exons, and introns (Fig. 4A).\nIn fact, lncRNA promoters are on average more conserved than\ntheir exons, and almost as conserved as protein-coding gene pro-\nmoters, as observed in mouse lincRNAs (Guttman et al. 2009).\nThe relatively fast evolutionary change of lncRNAs reported\nhere depends on phastCons-based analysis and, therefore, on theaccuracy of an underlying multiple genome alignment (MGA). To\navoid potential underestimation of conservation of noncoding\nsequence by this method, we completed this study with an\nMGA-independent assessment of the transcripts’ conservation\nacross mammalian genomes. We systematically BLASTed human\nlncRNAs against all available mammalian genomes, and sub-\nsequently used exonerate (Slater and Birney 2005) to reconstruct\ngene models on the genome sections yielding hits strong enough\nto support the presence of a homologous gene (Fig. 4B). With this\nmethod, ;30% of lncRNA transcripts ( n=4546) appear to be pri-\nmate specific. Altogether, this high primate conservation explainsthe large number of lncRNAs conserved in five species (2802) (Fig.\n4C), and the derived clustering recapitulates well the most com-', 'calculate a coSI score with confidence (see Supplemental Methods).\nNevertheless, the coSI data presented here will be a valuable tool\nfor subclassifying lncRNAs by their processing status.\nIn summary, we believe that our results strongly suggest that\nsplicing is a highly co-transcriptional process, whose outcome de-\npends crucially on many factors in the exon, and the overall gene\nsequence, as well as on chromatin architecture and transcription\ndynamics. As our analysis reveals here, the interrogation of RNA\nfractions provides invaluable information on the processing path-\nways establishing RNA genealogy.\nData access\nSupplemental Table S1 can be acce ssed at http://genome.crg.es/\n;htilgner/2011_coSI_paper/2011cp_index.html. Raw RNA-seq reads\ncan be accessed at the NCBI Gene Expression Omnibus (GEO)(http://www.ncbi.nlm.nih.gov/ g e o / )u n d e ra c c e s s i o nn u m b e r s\nGSE30567 and GSE24565. Additional detailed methods for RNA-seqcan be obtained in the production documents under ‘‘CSHL LongRNA-seq’’ and ‘‘CSHL Sm RNA-seq’’ at http://genome.ucsc.edu/\nENCODE/downloads.html.\nCompeting interest statement\nMichael Snyder is a consultant for Illumina and on the scientific\nadvisory board of Personalis and GenapSys.\nAcknowledgments\nWe thank Juan Valca ´rcel and Tobias Warnecke from the CRG for\nuseful discussions. This work has been carried out under grantsRD07/0067/0012, BIO2006-03380, and CSD2007-00050 from theSpanish Ministry of Science, and grants 1U54HG004557-01 and\n1U54HG004555-01 from the National Institutes of Health.\nReferences\nAllo M, Buggiano V , Fededa JP, Petrillo E, Schor I, de la Mata M, Agirre E, Plass\nM, Eyras E, Elela SA, et al. 2009. Control of alternative splicing through\nsiRNA-mediated transcriptional gene silencing. Nat Struct Mol Biol 16:\n717–724.\nAmeur A, Zaghlool A, Halvardson J, Wetterbom A, Gyllensten U, Cavelier L,\nFeuk L. 2011. Total RNA sequencing reveals nascent transcription and\nwidespread co-transcriptional splicing in the human brain. Nat Struct\nMol Biol 18:1435–1440.\nAndersson R, Enroth S, Rada-Iglesias A, Wadelius C, Komorowski J. 2009.\nNucleosomes are well positioned in exons and carry characteristic\nhistone modifications. Genome Res 19:1732–1741.\nBarash YCJ, Gao W, Pan Qu, Wang X, Shai O, Blencowe J, Frey B. 2010.\nDeciphering the splicing code. Nature 465: 53–59.\nBarski A, Cuddapah S, Cui K, Roh TY, Schones DE, Wang Z, Wei G, Chepelev\nI, Zhao K. 2007. High-resolution profiling of histone methylations in the\nhuman genome. Cell129: 823–837.\nBeyer AL, Osheim YN. 1988. Splice site selection, rate of splicing, and\nalternative splicing on nascent transcripts. Genes Dev 2:754–765.\nCarrillo Oesterreich F, Preibisch S, Neugebauer KM. 2010. Global analysis of\nnascent RNA reveals transcriptional pausing in terminal exons. Mol Cell\n40:571–581.\nCramer P, Pesce CG, Baralle FE, Kornblihtt AR. 1997. Functional association\nbetween promoter structure and transcript alternative splicing. Proc Natl\nAcad Sci 94:11456–11460.\nde la Mata M, Alonso CR, Kadener S, Fededa JP, Blaustein M, Pelisch F,\nCramer P, Bentley D, Kornblihtt AR. 2003. A slow RNA polymerase II\naffects alternative splicing in vivo. Mol Cell 12:525–532.\nde la Mata M, Lafaille C, Kornblihtt AR. 2010. First come, first served\nrevisited: Factors affecting the same alternative splicing event havedifferent effects on the relative rates of intron removal. RNA 16:904–\n912.Tilgner et al.\n1624 Genome Research\nwww.genome.org Cold Spring Harbor Laboratory Press  on October 29, 2024 - Published by genome.cshlp.org Downloaded from \nDerrien T, Johnson R, Bussotti G, Tanzer A, Djebali S, Tilgner H, Guernec G,\nMartin D, Merkel A, Knowles DG, et al. 2012. The GENCODE v7 catalog\nof human long noncoding RNAs: Analysis of their gene structure,evolution, and expression. Genome Res (this issue). doi: 10.1101/\ngr.132159.111.\nDjebali S, Davis CA, Merkel A, Dobin A, Lassmann T, Mortazavi AM, Tanzer', '“fncel-07-00168” — 2013/9/30 — 16:47 — pag e1—# 1REVIEW ARTICLE\npublished: 02 October 2013\ndoi: 10.3389/fncel.2013.00168\nIdentiﬁcation and function of long non-coding RNA\nCarl Ernst1,2* and Cynthia C. Morton3,4, 5\n1Douglas Hospital Research Institute, Montreal, QC, Canada\n2Department of Psychiatry, McGill University, Montreal, QC, Canada\n3Department of Obstetrics, Gynecology and Reproductive Biology, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA, USA\n4Department of Pathology, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA, USA\n5Medical and Population Genetics Program, The Broad Institute of M.I.T . and Harvard, Cambridge, MA, USA\nEdited by:\nT ommaso Pizzorusso, Istituto\nNeuroscienze Consiglio Nazionale\ndelle Ricerche, Italy\nReviewed by:\nJanine LaSalle, University of California\nDavis Medical School, USABeatrice Bodega, Istituto Nazionale diGenetica Molecolare, Italy\n*Correspondence:\nCarl Ernst, Douglas Hospital ResearchInstitute, 6875 LaSalle Boulevard,Frank Common Building, Room2101 .2, Montreal, QC H4H 1R3,Canadae-mail: carl.ernst@mcgill.caLong non-coding (lnc) RNAs are deﬁned as non-protein coding RNAs distinct from\nhousekeeping RNAs such as tRNAs, rRNAs, and snRNAs, and independent from smallRNAs with speciﬁc molecular processing machinery such as micro- or piwi-RNAs. Recentstudies of lncRNAs across different species have revealed a diverse population of RNAmolecules of differing size and function. RNA sequencing studies suggest transcription\nthroughout the genome, so there is a need to understand how sequence relates to\nfunctional and structural relationships amongst RNA molecules. Our synthesis of recentstudies suggests that neither size, presence of a poly-A tail, splicing, direction oftranscription, nor strand speciﬁcity are of importance to lncRNA function. Rather, relativegenomic position in relation to a target is fundamentally important. In this review, wedescribe issues of key importance in functional assessment of lncRNA and how this mightapply to lncRNAs important in neurodevelopment.\nKeywords: non-coding RNA, epigenetics, gene regulation, neurodevelopment\nTHERE IS A WIDE VARIETY OF NON-CODING RNA IN MANY\nSPECIES\nThe co-occurrence of massively parallel sequencing technology\napplied to RNA and the recognition that non-coding, functionalRNA species may not be restricted to X-chromosome inactivation(Jeon et al., 2012; Batista and Chang, 2013 ) or to protein synthesis\nmachinery, have revealed an RNA universe of remarkable diver-sity in plant and animal cells. Non-coding (nc) RNAs, those RNA\nmolecules that are not templates for protein synthesis, make up a\nlarge portion of the total RNA in the cell suggesting a profoundfunctional importance. Despite their abundance, few ncRNAs havebeen studied and even fewer have been functionally characterized.These ncRNAs come in many forms: they can be very small orseveral hundred kilobases long; they may be spliced or unspliced;they can form linear or tertiary structures; they may or may nothave a poly-A tail, and some interact with DNA, protein, or otherRNA molecules (Novikova et al., 2013 ). As is described in this\nreview, among various roles, Long non-coding (lnc) RNAs partic-\nipate in guidance of large protein complexes to DNA leading to\ninﬂuence over locus-speciﬁc gene expression, and in the modiﬁ-cation of expression or abundance of complementary messengerRNA strands. The wide diversity of function and form of ncRNA,combined with the explosive growth in newly identiﬁed ncRNAmolecules, has lead to a need to understand better potential rela-tionships of function between ncRNA and to consider a morecategorical approach to classiﬁcation.\nNon-protein coding RNA has long been recognized in cells.\nTransfer RNAs and ribosomal RNAs were identiﬁed over 50 yearsago; neither encodes a peptide chain, though they are integral\ncomponents of the machinery for protein synthesis. Identiﬁcation', 'investigate the splicing dynamics of lncRNAs (see Supplemental\nMethods; Derrien et al. 2012). We find that coSI values of lncRNAexons, as a class, but also those of well-investigated lncRNAs ( H19,\nXIST,U50HG_SNHG5 ) are dramatically lower than those of coding\nexons in the total chromatin fraction (Fig. 6D). Also in terms of\ncompleted splicing of the entire RNA, that is, on the gene-coSIFigure 4. An RPM was calculated based on short RNA-seq in each subcellular fraction—total chromatin fraction (CHR; red), total cytoplasmic fraction\n(CYT; yellow), total nucleoli fraction (NL; green), total nucleoplasmic fraction (NP; light blue), total nuclear fraction (NUC; purple), total whole-cell\nfraction (WC; pink)—and summed for all genes encoding for U1-RNA ( A), U2-RNA ( B), U3-RNA ( C), U4-RNA ( D), U5-RNA ( E), U6 RNA ( F), U6atac ( G), and\nnon–U-RNA snoRNAs ( H).Widespread co-transcriptional splicing in humans\nGenome Research 1621\nwww.genome.org Cold Spring Harbor Laboratory Press  on October 29, 2024 - Published by genome.cshlp.org Downloaded from \nlevel, lncRNAs show lower splicing completion then mRNAs in the\ntotal chromatin fraction (Fig. 6E). The difference between lncRNA\nexons and mRNA exons persists in the nuclear polyA +fraction\n(Fig. 6F), arguing that lncRNAs are often spliced later and some-times might even not be spliced at all. This is consistent with re-\nports that some lncRNAs remain predominantly unspliced, for\nexample, AIRN and KCNQ1OT1 (Sleutels et al. 2002; Mancini-\nDinardo et al. 2006).\nDiscussion\nCo-transcriptional splicing has recently been shown to be wide-\nspread in the intron-poor genome of S. cerevisiae ( Carrillo Oesterreich\net al. 2010 ). In higher eukaryotes, co-transcriptional splicing has\nbeen documented in detail for a few individual genes such as fibro-\nnectin and SRC(Cramer et al. 1997; Kadener et al. 2001; de la Mata\net al. 2003; Pandya-Jones and Black 2009), and this mode of intronremoval has been proposed to be widespread in the human brain,\nbased on analysis of whole-cell, total RNA-seq (Ameur et al. 2011).\nWhile we coincide on the claim of widespread co-transcriptionalsplicing, our approach of analyzing RNA-seq data in a variety of\nfractions provides major advantages: First, we are able to clearly\nseparate cytosolic RNAs, nuclear RNAs, as well as a special subset of\nthe latter, RNAs that still reside on the chromatin template. Thus\nwe demonstrate that spliced reads and exonic reads in the latter\nfraction are not the result of completely spliced RNAs, which still\nremain in cytosol (or nucleus) and not on the chromatin. Second,\nwe can define, for single exons, what proportion of their surround-\ning introns is removed co-transcriptionally or after polyadenylation\nwhile controlling for intron retention with cytosolic RNA-seq. This\nwe can achieve, by introducing an exon-based measure of splicing\ncompletion: This measure, the coSI, shows that most introns initiate\nsplicing while the RNA is still associated with the chromatin—\nstrongly suggesting that co-transcriptional splicing is also the dom-\ninant mode in the human genome. Consistent with this, we\nhave found significant enrichment of spliceosomal snRNAs inchromatin-associated RNA compared with other cellular RNA frac-\ntions and other nonspliceosomal snRNAs. This supports the idea\nthat exons, around which we detect a tendency for postTS, might\nalready have been committed to splicing co-transcriptionally. Al-\nFigure 5. Linear model connecting exon-coSI values to gene, exon, and chromatin structure variables. ( A) Smoothed scatterplot and correlation\nbetween predicted coSI values and measured coSI values using the entire model. ( B) Correlation of predicted coSI values and measured coSI values using\nfour increasing subsets of variables and the entire model: model with distance to TSS and distance to polyA site (pos); model additionally including a cceptor', 'Indeed, we detect enrichment of a variety of chromatin marks on\nexons in the process of being spliced (i.e., exons, with low coSI\nvalues in the chromatin-associated RNA).\nWhile proximity to the polyA site seems to disfavor co-\ntranscriptional splicing near the end of the gene, other features such\nas 59-to-39decreasing intron size and increasing splice site strength\nfavor rapid splicing, so that comparatively high co-transcriptionalsplicing completion can still be observed toward the 3 9end of the\ngene. Moreover, it is known that various histone marks vary alongthe gene (Barski et al. 2007). Such a special chromatin organization\ntoward the 3 9end of the gene could also contribute either directly\nor indirectly to splicing completion prior to polyadenylation.\nInterestingly, gene expression of nuclear polyA +RNAs is a\nweak but significant predictor of coSI values in the chromatin totalfraction, suggesting a selective pressure for splicing in more highly\nexpressed genes occurs more rapidly. Splicing around coding exons\nis significantly more often co-transcriptional (in comparison to\nexons containing noncoding sequence), while splicing around\nalternatively skipped exons is significantly more post-transcriptional\n(than for exons not involved in skipping events). Importantly, this\ndoes not imply that for all alternative exons splicing of the corre-\nsponding introns always occurs post-transcriptionally. Rather, it\nmeans that while only a few introns surrounding constitutive\nexons are removed post-transcriptionally, a significantly higher\nfraction of introns surrounding (or skipping) alternative exons areremoved post-transcriptionally. This genome-wide picture sup-\nposedly represents a mixture of two models observed on the fi-\nbronectin gene (de la Mata et al. 2010) and on the Sxland PTBP2\n(also known as nPTB ) genes (Vargas et al. 2011). In the former case,\nchanged exon inclusion levels were achieved without changing\nthe relative timing of actual intron removal but, supposedly, rather\nby changing splicing commitment co-transcriptionally (de la Mata\net al. 2010). In the latter, however, exon inclusion occurred when\nsplicing was co-transcriptional, whereas the exon was skipped\nwhen splicing was carried out post-transcriptionally (Vargas et al.\n2011). One interpretation for these and our observations is that\nco-transcriptional splicing tends to be more faithful than postTS,\nwhich would therefore offer more opportunities for an exon to be\nalternatively, that is, differently, included. An interesting corollary\nof this idea is that when a shorter-than-usual isoform of a gene is\nexpressed, some introns around internal exons might be spliced\nmore often post-transcriptionally, as they are closer to the chosen\npolyA site. This could then lead to changed inclusion rates of the\nexon.\nLower coSI values for lncRNAs can be interpreted in multiple\nways, all of which probably apply to different subsets of this rather\nheterogeneous RNA class. Some splicing events in lncRNAs are\nprobably carried out later, that is, post-transcriptionally, simply\nbecause lncRNA gene features (e.g., shorter gene length, lower ex-\npression) favor this mode of splicing. It is highly likely given the data\npresented here and previously described examples, that many\nlncRNAs either (1) remain completely unspliced or (2) have a high\nproportion of primary transcripts that are never spliced, while a\nminority are processed by the splicing machinery. For example,\ntwo lncRNAs involved in imprinting are likely to remain in the\nnucleus in an unspliced state: AIRN (Sleutels et al. 2002) and\nKCNQ1OT1 (Mancini-Dinardo et al. 2006). However, our data should\nbe treated with caution, since the analysis was carried out on thesmall subset of lncRNAs that are expressed sufficiently highly to\ncalculate a coSI score with confidence (see Supplemental Methods).\nNevertheless, the coSI data presented here will be a valuable tool\nfor subclassifying lncRNAs by their processing status.']</t>
         </is>
       </c>
     </row>
@@ -517,9 +517,10 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, Denosumab has been approved by the FDA for the prevention of skeletal-related events in men with metastatic castration-resistant prostate cancer (CRPC). Specifically, the passage states:
-"The FDA approved in November 2010 denosumab for the prevention of SREs in men with metastatic CRPC and bone metastases."
-So yes, Denosumab (brand name Xgeva) has been approved by the FDA for use in metastatic CRPC patients with bone metastases.</t>
+          <t>Based on the information provided in the context, yes, Denosumab has been approved by the FDA for use in patients with metastatic castration-resistant prostate cancer (CRPC). Specifically, the passage states:
+"Four new drugs have received U.S. Food and Drug Administration (FDA)-approval in 2010 and 2011: sipuleucel-T, an immunotherapeutic agent; cabazitaxel, a novel microtubule inhibitor; abiraterone acetate, a new androgen biosynthesis inhibitor; and denosumab, a bone-targeting agent."
+The context then goes on to describe a phase III trial comparing denosumab to zoledronic acid in men with bone metastases from CRPC. It notes that in November 2010, "The FDA approved denosumab for the prevention of SREs in men with metastatic CRPC and bone metastases."
+So yes, according to this information, denosumab has been FDA-approved for use in metastatic CRPC patients with bone metastases.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -551,15 +552,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, Hirschsprung disease (HSCR) appears to be a multifactorial disorder rather than a simple Mendelian disorder. Several key points support this:
-1. The context states that HSCR has a "complex genetic etiology" with multiple genes involved.
-2. It mentions that both rare variants (RVs) and common variants (CVs) in the RET gene contribute to HSCR risk in a "multifactorial nature".
-3. The study found that RET common variants and rare variants "seem to act in a synergistic way leading to HSCR phenotype", supporting an additive/multiplicative model. 
-4. There is mention of "differential contributions of its rare and common, coding and noncoding mutations to the multifactorial nature of this pathology."
-5. The disease shows incomplete penetrance and variable expressivity, with sex-dependent penetrance mentioned.
-6. Environmental factors are also thought to play a role, as indicated by the statement that HSCR has a "complex genetic etiology".
-7. The study found that 13% of cases had no identified RET mutations, suggesting other genes or factors are involved.
-So in summary, while genetic factors clearly play a major role, HSCR appears to result from a complex interplay of multiple genetic and environmental factors rather than following simple Mendelian inheritance patterns. This supports classifying it as a multifactorial disorder.</t>
+          <t>Based on the information provided in the context, Hirschsprung disease (HSCR) appears to be a multifactorial disorder with complex genetic etiology, rather than a simple Mendelian disorder. Key points that support this:
+1. The context states that HSCR has a "complex genetic etiology with several genes being described as associated with either isolated or syndromic forms."
+2. It mentions that both rare variants (RVs) and common variants (CVs) in the RET gene contribute to HSCR risk in a multifactorial way.
+3. The study found that RET common variants and rare variants "seem to act in a synergistic way leading to HSCR phenotype."
+4. The authors refer to an "additive/multiplicative model proposed for HSCR", suggesting multiple genetic factors contribute.
+5. Even after analyzing RET variants, 13% of cases had no identified RET mutations, suggesting other genes are also involved.
+6. The disease shows incomplete penetrance and variable expressivity, which is characteristic of multifactorial disorders.
+7. Environmental factors are also thought to play a role, as evidenced by the gender differences observed.
+In summary, while RET is a major gene involved, HSCR appears to result from a combination of multiple genetic and environmental factors, fitting the profile of a complex multifactorial disorder rather than a single-gene Mendelian condition. The evidence points to an interplay of common and rare variants in RET and likely other genes as well.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -591,13 +592,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Based on the context provided, yes, RANKL appears to be secreted from the cells. Specifically:
+          <t>Based on the context provided, it appears that RANKL is indeed secreted from the cells. Specifically:
 1. The passage mentions "An increased RANKL/OPG ratio secreted by co-cultured osteoblasts compared with single-cultured was identified by ELISA analysis of cell culture medium"
-2. This indicates that RANKL and OPG are being secreted into the cell culture medium, where their levels can be measured by ELISA.
-3. The OPG/RANKL/RANK system is described as an "essential mechanism for regulation of bone metabolism" that operates in the bone microenvironment. 
-4. It states that "RANKL combined with RANK is associated with osteoclastogenesis" - for this interaction to occur, RANKL would need to be secreted from cells producing it.
-5. The study analyzes the "RANKL/OPG ratio secreted by pre-osteoblasts", again indicating RANKL is secreted.
-So in summary, the context clearly indicates that RANKL is secreted from cells (particularly osteoblasts) into the extracellular environment where it can interact with its receptor RANK on other cells like osteoclasts. The ability to measure RANKL levels in cell culture medium by ELISA provides direct evidence of its secretion.</t>
+2. This indicates that RANKL and OPG were detected in the cell culture medium using ELISA, suggesting they are secreted proteins that can be measured in the extracellular environment. 
+3. RANKL is known to be a secreted protein that acts as a ligand for RANK receptors on other cells. The fact that it was measured in the culture medium supports that it is secreted by the cells in this experimental system.
+4. The study is examining how adipocytes affect the RANKL/OPG/RANK system between osteoblasts and osteoclasts, which relies on RANKL being a secreted factor that can signal between these cell types.
+So in summary, yes, the context indicates that RANKL is secreted from the cells (likely the osteoblasts) into the culture medium where it can be measured and act on other cells. This is consistent with the known biology of RANKL as a secreted signaling protein in bone metabolism.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -629,13 +629,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, trastuzumab (Herceptin) does not appear to be very effective for treating prostate cancer. Specifically:
-1. The abstract states that "carcinomas with a high expression of ErbB2, such as non-small cell lung carcinoma, gastric and prostate tumors, have been found to be resistant or much less sensitive to Herceptin treatment."
-2. The introduction notes that "Herceptin (trastuzumab) is the only humanized monoclonal antibody available for the treatment of ErbB2-positive breast cancer" but does not mention its use for prostate cancer.
-3. The context indicates that while ErbB2 overexpression may play a role in prostate cancer becoming androgen-independent, trastuzumab has not shown significant efficacy against prostate tumors.
-4. The authors are investigating a novel antibody called Erb-hcAb as a potential treatment for prostate cancer, suggesting current options like trastuzumab are not sufficiently effective.
-5. One reference cited (Agus et al., 1999) found that prostate cancer xenografts were resistant to anti-ErbB2 antibody treatment.
-In summary, while ErbB2 may be a relevant target in prostate cancer, the evidence provided suggests trastuzumab specifically has limited potential for treating prostate cancer due to resistance or low sensitivity of prostate tumors to this antibody. The researchers are exploring alternative anti-ErbB2 antibodies that may be more effective.</t>
+          <t>Based on the context provided, there is evidence that trastuzumab (Herceptin) may have potential use in treating prostate cancer, particularly advanced or hormone-refractory prostate cancer:
+1. HER2, the target of trastuzumab, is overexpressed in approximately 20-30% of prostate cancers and in 78% of androgen-independent prostate cancers. It is preferentially expressed in hormone-refractory and metastatic prostate cancers.
+2. Increased HER2 expression correlates with more aggressive tumor behavior and is associated with prostate cancer progression.
+3. HER2 contributes to prostate cancer progression through multiple mechanisms, including stimulating tumor cell proliferation, stabilizing the androgen receptor, and activating signaling pathways. 
+4. Preclinical studies have shown that targeting HER2 can inhibit growth of prostate cancer cells.
+5. The study described in the abstract found that 212Pb-trastuzumab (a radioactive form of trastuzumab) reduced tumor growth by 60-80%, reduced metastasis, and prolonged survival in a mouse model of prostate cancer.
+6. The treatment appeared to be well-tolerated without significant toxicity.
+However, the context also notes that prostate cancers have been found to be resistant or less sensitive to trastuzumab treatment compared to breast cancer. More research would likely be needed to determine trastuzumab's clinical efficacy in prostate cancer patients.
+In summary, while there is promising preclinical evidence, further clinical studies would be required to definitively establish trastuzumab's potential use and efficacy in prostate cancer treatment. The radioactive form (212Pb-trastuzumab) may hold particular promise based on the mouse study results.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -650,7 +652,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['ONCOLOGY REPORTS  28:  297-302,  2012\nAbstract.  Prostate cancer is the most commonly diagnosed \nmalignancy in men in developed countries. ErbB2, a tyrosine \nkinase receptor overexpressed in many human cancer types, \ncontributes to prostate cancer progression by activating \nthe androgen receptor in a steroid poor environment, thus \npromoting androgen-independent cell growth. The conse -\nquent development of hormone refractory tumors is a major \nobstacle in prostate cancer therapy. The inhibition of ErbB2 \nsignal transduction pathways by the use of human antibodies \ncould be a valuable alternative strategy for cancer therapy. \nWe performed a comparative analysis  in vitro  and in vivo  of \nthe antitumor effects of three different antibodies targeting \ndifferent epitopes of ErbB2: Herceptin (trastuzumab), 2C4 \n(pertuzumab) and Erb-hcAb (human anti-ErbB2-compact \nantibody), a novel fully human compact antibody produced in \nour laboratory. Herein, we demonstrate that the growth of both \nandrogen-dependent and independent prostate cancer cells \nwas efficiently inhibited by Erb-hcAb. The antitumor effects \ninduced by Erb-hcAb on some cell lines were more potent than \nthose observed for either Herceptin or 2C4. Thus, Erb-hcAb \ncould be a promising candidate in the immunotherapy of pros -\ntate cancer for which no obvious treatment has been reported \nso far.\nIntroduction\nProstate cancer is the second leading cause of cancer-related \ndeath among men in the USA. In 2005 it was the most \nfrequently diagnosed cancer, accounting for approximately \n33% of incident cases in men and 10% of deaths (1). Most of the patients with an advanced form of the disease at diagnosis \nare treated by systemic androgen ablation therapy. Initially, \nthe cancer is responsive to this type of treatment because it \nexhibits an androgen-sensitive phenotype (2). Unfortunately, \nat a later stage the cancer typically progresses in a form that \nno longer responds to androgen deprivation, thus becoming \nandrogen-independent. Androgen-independent prostate cancer \nis resistant to therapeutic interventions and ultimately leads to \nthe demise of the patient.\nThe mechanisms through which prostate cancer converts to \nandrogen independence are still unclear. It has been reported \nthat the onset of ErbB2 protein overexpression may coincide \nwith the emergence of androgen independence as the androgen \nreceptor can be activated by ErbB2 through the Akt pathway, \nthus promoting androgen-independent prostate cancer growth \nand survival (3).\nErbB2 (also known as HER2) is a transmembrane tyro -\nsine kinase member of the epidermal growth factor receptor \n(EGFR) family, overexpressed in many human cancer types. \nIn particular, ErbB2 is implicated in malignant transforma -\ntion and tumorigenesis (4,5), and is overexpressed in breast, \novary, prostate, non-small cell lung cancer and in several other \ncarcinomas (6-8), whereas on normal tissues it is not detect -\nable or it is expressed at very low levels (9). Owing to their \nrole in cancer pathogenesis, ErbB2 and EGFR have become \nimportant targets of anticancer therapy: many drugs have been \ndeveloped against one or both of these receptors.\nHerceptin (trastuzumab) is the only humanized monoclonal \nantibody available for the treatment of ErbB2-positive breast \ncancer since 1998 when it was approved by FDA, and is now \nused for the treatment of both metastatic and early-stage breast \ncancer (10,11). Although Herceptin significantly improves the \noutcome for patients with ErbB2-positive breast cancer, not all \nthe patients benefit from the treatment. A significant fraction \nof the patients do not respond at all, and most of the patients \nwho initially respond to Herceptin generally tend to develop \nresistance during treatment (12).\nFurthermore, carcinomas with a high expression of ErbB2, \nsuch as non-small cell lung carcinoma, gastric and prostate \ntumors, have been found to be resistant or much less sensitive', "immunoagents are active on trastuzumab-resistant tumours. Br J \nCancer 102: 513-519, 2010.\n24. Gianni L, Llado A, Bianchi G, et al: Open-label, phase II, multi -\ncenter, randomized study of the efficacy and safety of two dose \nlevels of Pertuzumab, a human epidermal growth factor receptor \n2 dimerization inhibitor, in patients with human epidermal \ngrowth factor receptor 2-negative metastatic breast cancer. J Clin \nOncol 28: 1131-1137, 2010.\n25. de Bono JS, Bellmunt J, Attard G, et al: Open-label phase II study \nevaluating the efficacy and safety of two doses of pertuzumab in \ncastrate chemotherapy-naive patients with hormone-refractory \nprostate cancer. J Clin Oncol 25: 257-262, 2007.\n26. Johnson BE and Janne PA: Rationale for a phase II trial of \npertuzumab, a HER-2 dimerization inhibitor, in patients with \nnon-small cell lung cancer. Clin Cancer Res 12: S4436-S4440, \n2006.\n27. Luftig MA, Mattu M, Di Giovine P, et al: Structural basis for \nHIV-1 neutralization by a gp41 fusion intermediate-directed \nantibody. Nat Struct Mol Biol 13: 740-747, 2006.\n28. Agus DB, Akita RW, Fox WD, et al: Targeting ligand-activated \nErbB2 signaling inhibits breast and prostate tumor growth. \nCancer Cell 2: 127-137, 2002.\n29. Borsi L, Balza E, Bestagno M, et al : Selective targeting of \ntumoral vasculature: comparison of different formats of an \nantibody (L19) to the ED-B domain of fibronectin. Int J Cancer \n102: 75-85, 2002.\n30. Heinlein CA and Chang C: Androgen receptor in prostate cancer. \nEndocr Rev 25: 276-308, 2004.\n31. Gregory CW, Whang YE, McCall W, et al: Heregulin-induced \nactivation of HER2 and HER3 increases androgen receptor \ntransactivation and CWR-R1 human recurrent prostate cancer \ncell growth. Clin Cancer Res 11: 1704-1712, 2005.\n32. Hynes NE, Horsch K, Olayioye MA and Badache A: The ErbB \nreceptor tyrosine family as signal integrators. Endocr Relat \nCancer 8: 151-159, 2001.\n33. El Sheikh SS, Domin J, Abel P, Stamp G and Lalani el-N: \nAndrogen-independent prostate cancer: potential role of \nandrogen and ErbB receptor signal transduction crosstalk. \nNeoplasia 5: 99-109, 2003.\n34. Solit DB and Rosen N: Targeting HER2 in prostate cancer: where \nto next? J Clin Oncol 25: 241-243, 2007.\n35. Troise F, Cafaro V, Giancola C, D'Alessio G and De Lorenzo C: \nDifferential binding of human immunoagents and Herceptin to \nthe ErbB2 receptor. FEBS J 275: 4967-4979, 2008.\n36. Troise F, Monti M, Merlino A, et al : A novel ErbB2 epitope \ntargeted by human antitumor immunoagents. FEBS J 278: \n1156 -1166, 2011.\n37. De Lorenzo C, Troise F, Cafaro V and D'Alessio G: Combinatorial \nexperimental protocols for Erbicin-derived immunoagents and \nHerceptin. Br J Cancer 97: 1354-1360, 2007.\n38. Scheuer W, Friess T, Burtscher H, Bossenmaier B, Endl J and \nHasmann M: Strongly enhanced antitumor activity of trastu -\nzumab and pertuzumab combination treatment on HER2-positive \nhuman xenograft tumor models. Cancer Res 69: 9330-9336, \n2009.", "Furthermore, carcinomas with a high expression of ErbB2, \nsuch as non-small cell lung carcinoma, gastric and prostate \ntumors, have been found to be resistant or much less sensitive \nto Herceptin treatment (13-15). Finally, large-scale clinical \nstudies with Herceptin have shown that it engenders cardiotox -\nicity (16,17), which occurs more frequently in patients treated Effects of a human compact anti-ErbB2 \nantibody on prostate cancer\nANGELA ELIANA MALARA1,  CARMINE FEDELE1,  LUIGI ALOJ2,  CLAUDIO ARRA3, \nPAOLO LACCETTI1,  GIUSEPPE D 'ALESSIO1  and  CLAUDIA DE LORENZO1\n1Department of Structural and Functional Biology, University of Naples  Federico II, I-80126 Naples ;  2Department of \nNuclear Medicine, 3SSD Animal Facility, IRCCS National Cancer Institute, G. Pascale Foundation, I-80131 Naples , Italy\nReceived January 19, 2012;  Accepted March 2, 2012\nDOI: 10.3892/or.2012.1760\nCorrespondence to:  Dr Claudia De Lorenzo, Department of \nStructural and Functional Biology, University of Naples Federico II, \nvia Cinthia, I-80126 Naples, Italy\nE-mail: cladelor@unina.it\nKey words:  ErbB2/Her2, prostate cancer, immunotherapy, \nHerceptin/trastuzumab, antibodies", "MALARA et al:  Anti-ErbB2 ANTIBODY FOR PROSTATE CANCER 302\nReferences\n  1. Jemal A, Murray T, Ward E, et al: Cancer statistics, 2005. CA \nCancer J Clin 55: 10-30, 2005.\n  2. Smith PC, Hobisch A, Lin DL, Culig Z and Keller ET: \nInterleukin-6 and prostate cancer progression. Cytokine Growth \nFactor Rev 12: 33-40, 2001.\n  3. Yeh S, Lin HK, Kang HY, Thin TH, Lin MF and Chang C: From \nHER2/Neu signal cascade to androgen receptor and its coacti -\nvators: a novel pathway by induction of androgen target genes \nthrough MAP kinase in prostate cancer cells. Proc Natl Acad Sci \nUSA 96: 5458-5463, 1999.\n  4. Graus-Porta D, Beerli RR, Daly JM and Hynes NE: ErbB-2, the \npreferred heterodimerization partner of all ErbB receptors, is a \nmediator of lateral signaling. EMBO J 16: 1647-1655, 1997.\n  5. Lohrisch C and Piccart M: HER2/neu as a predictive factor in \nbreast cancer. Clin Breast Cancer 2: 129-137, 2001.\n  6. Fukushige S, Matsubara K, Yoshida M, et al: Localization of a \nnovel v-erbB-related gene, c-erbB-2, on human chromosome 17 \nand its amplification in a gastric cancer cell line. Mol Cell Biol 6: \n955-958, 1986.\n  7. Semba K, Kamata N, Toyoshima K and Yamamoto T: A v-erbB-\nrelated protooncogene, c-erbB-2, is distinct from the c-erbB-1/\nepidermal growth factor-receptor gene and is amplified in a \nhuman salivary gland adenocarcinoma. Proc Natl Acad Sci USA \n82: 6497-6501, 1985.\n  8. Slamon DJ, Godolphin W, Jones LA, et al: Studies of the HER-2/\nneu proto-oncogene in human breast and ovarian cancer. Science \n244: 707-712, 1989.\n  9. Press MF, Cordon-Cardo C and Slamon DJ: Expression of the \nHER-2/neu proto-oncogene in normal human adult and fetal \ntissues. Oncogene 5: 953-962, 1990.\n10. Romond EH, Perez EA, Bryant J, et al: Trastuzumab plus adjuvant \nchemotherapy for operable HER2-positive breast cancer. N Engl \nJ Med 353: 1673-1684, 2005.\n11. Stebbing J, Copson E and O'Reilly S: Herceptin (trastuzamab) in \nadvanced breast cancer. Cancer Treat Rev 26: 287-290, 2000.\n12. Nahta R and Esteva FJ: Herceptin: mechanisms of action and \nresistance. Cancer Lett 232: 123-138, 2006.\n13. Agus DB, Scher HI, Higgins B, et al: Response of prostate cancer \nto anti-Her-2/neu antibody in androgen-dependent and -inde -\npendent human xenograft models. Cancer Res 59: 4761-4764, \n1999.\n14. Clamon G, Herndon J, Kern J, et al: Lack of trastuzumab activity \nin non-small cell lung carcinoma with overexpression of erb-B2: \n39810: a phase II trial of Cancer and Leukemia Group B. Cancer \n103: 1670-1675, 2005.\n15. Gong SJ, Jin CJ, Rha SY and Chung HC: Growth inhibitory \neffects of trastuzumab and chemotherapeutic drugs in gastric \ncancer cell lines. Cancer Lett 214: 215-224, 2004.\n16. Chien KR: Myocyte survival pathways and cardiomyopathy: \nimplications for trastuzumab cardiotoxicity. Semin Oncol 27: \n9-100, 2000.\n17. Sparano JA: Cardiac toxicity of trastuzumab (Herceptin): impli -\ncations for the design of adjuvant trials. Semin Oncol 28: 20-27, \n2001.\n18. Schneider JW, Chang AY and Rocco TP: Cardiotoxicity in signal \ntransduction therapeutics: erbB2 antibodies and the heart. Semin \nOncol 28: 18-26, 2001.\n19. De Lorenzo C, Tedesco A, Terrazzano G, et al : A human, \ncompact, fully functional anti-ErbB2 antibody as a novel anti-\ntumour agent. Br J Cancer 91: 1200-1204, 2004.\n20. De Lorenzo C, Palmer DB, Piccoli R, Ritter MA and D'Alessio G: \nA new human antitumor immunoreagent specific for ErbB2. Clin \nCancer Res 8: 1710-1719, 2002.21. De Lorenzo C and D'Alessio G: Human anti-ErbB2 immuno -\nagents - immunoRNases and compact antibodies. FEBS J 276: \n1527-1535, 2009.\n22. Riccio G, Esposito G, Leoncini E, et al : Cardiotoxic effects, \nor lack thereof, of anti-ErbB2 immunoagents. FASEB J 23: \n3171-3178, 2009.\n23. Gelardi T, Damiano V, Rosa R, et al: Two novel human anti-ErbB2 \nimmunoagents are active on trastuzumab-resistant tumours. Br J \nCancer 102: 513-519, 2010.\n24. Gianni L, Llado A, Bianchi G, et al: Open-label, phase II, multi -", 'Comparison of serum HER2/neu with immunohistochemical \nHER2/neu expression for the prediction of biochemical progres -\nsion in metastatic prostate cancer. Intl J Urol 16: 369-374, 2009.\n  8. Domingo-Domenech J, Fernandez PL, Filella X, et al : Serum \nHER2 extracellular domain predicts an aggressive clinical \noutcome and biological PSA response in hormone-independent \nprostate cancer patients treated with docetaxel. Ann Oncol 19: \n269-275, 2008.\n  9. Okegawa T, Kinjo M, Nutahara K and Higashihara E: Pretreatment \nserum level of HER2/nue as a prognostic factor in metastatic \nprostate cancer patients about to undergo endocrine therapy. Int J \nUrol 13: 1197-1201, 2006.\n10. Shariat SF, Bensalah K, Karam JA, et al: Preoperative plasma \nHER2 and epidermal growth factor receptor for staging and \nprognostication in patients with clinically localized prostate \ncancer. Clin Cancer Res 13: 5377-5384, 2007.\n11. Festuccia C, Gravina GL, Muzi P, et al: Bicalutamide increases \nphospho-Akt levels through Her2 in patients with prostate \ncancer. Endocr Relat Cancer 14: 601-611, 2007.\n12. Festuccia C, Gravina GL, Biordi L, et al: Effects of EGFR tyrosine \nkinase inhibitor erlotinib in prostate cancer cells in vitro. Prostate \n69: 1529-1537, 2009.\n13. Hsu FN, Yang MS, Lin E, Tseng CF and Lin H: The significance \nof Her2 on androgen receptor protein stability in the transition \nof androgen requirement in prostate cancer cells. Am J Physiol \nEndocrinol Metabol 300: E902-E908, 2011.\n14. Gregory CW, Whang YE, McCall W, et al: Heregulin-induced \nactivation of HER2 and HER3 increases androgen receptor \ntransactivation and CWR-R1 human recurrent prostate cancer \ncell growth. Clin Cancer Res 11: 1704-1712, 2005.\n15. Yeh S, Lin HK, Kang HY , Thin TH, Lin MF and Chang C: From \nHER2/Neu signal cascade to androgen receptor and its coactivators: \na novel pathway by induction of androgen target genes through \nMAP kinase in prostate cancer cells. Proc Natl Acad Sci USA 96: \n5458-5463, 1999.\n16. Sugita S, Kawashima H, Tanaka T, Kurisu T, Sugimura K and \nNakatani T: Effect of type I growth factor receptor tyrosine kinase \ninhibitors on phosphorylation and transactivation activity of the \nandrogen receptor in prostate cancer cells: ligand-independent \nactivation of the N-terminal domain of the androgen receptor. \nOncol Rep 11: 1273-1279, 2004.\n17. Festuccia C, Gravina GL, Muzi P, et al: Her2 crosstalks with TrkA \nin a subset of prostate cancer cells: rationale for a guided dual \ntreatment. Prostate 69: 337-345, 2009.\n18. Sotomayor S, Munoz-Moreno L, Carmena MJ, et al: Regulation \nof HER expression and transactivation in human prostate cancer \ncells by a targeted cytotoxic bombesin analog (AN-215) and a \nbombesin antagonist (RC-3095). Int J Cancer 127: 1813-1822, \n2010.\n19. Gravina GL, Marampon F, Piccolella M, et al: Antitumor effects \nof carnertinib in castration resistant prostate cancer models: a \ncomparative study with erlotinib. Prostate 71: 281-288, 2011.\n20. Goldstein D, Gofrit O, Nyska A and Benita S: Anti-HER2 cationic \nimmunoemulsion as a potential targeted drug delivery system \nfor the treatment of prostate cancer. Cancer Res 67: 269-275, \n2007.\n21. Formento P, Hannoun-Levi JM, Gerard F, et al : Gefitinib-\ntrastuzumab combination on hormone-refractory prostate cancer \nxenograft. Eur J Cancer 41: 1467-1473, 2005.\n22. Agus DB, Scher HI, Higgins B, et al: Response of prostate cancer \nto anti-Her-2/neu antibody in androgen-dependent and -indepen -\ndent human xenograft models. Cancer Res 59: 4761-4764, 1999.\n23. Solit DB and Rosen N: Targeting HER2 in prostate cancer: where \nto next? J Clin Oncol 25: 241-243, 2007.\n24. Sridhar SS, Hotte SJ, Chin JL, et al : A multicenter phase II \nclinical trial of lapatinib (GW572016) in hormonally untreated \nadvanced prostate cancer. Am J Clin Oncol 33: 609-613, 2010.\n25. Lara PN Jr, Chee KG, Longmate J, et al : Trastuzumab plus \ndocetaxel in HER-2/neu-positive prostate carcinoma: final results']</t>
+          <t>['ONCOLOGY REPORTS  28:  297-302,  2012\nAbstract.  Prostate cancer is the most commonly diagnosed \nmalignancy in men in developed countries. ErbB2, a tyrosine \nkinase receptor overexpressed in many human cancer types, \ncontributes to prostate cancer progression by activating \nthe androgen receptor in a steroid poor environment, thus \npromoting androgen-independent cell growth. The conse -\nquent development of hormone refractory tumors is a major \nobstacle in prostate cancer therapy. The inhibition of ErbB2 \nsignal transduction pathways by the use of human antibodies \ncould be a valuable alternative strategy for cancer therapy. \nWe performed a comparative analysis  in vitro  and in vivo  of \nthe antitumor effects of three different antibodies targeting \ndifferent epitopes of ErbB2: Herceptin (trastuzumab), 2C4 \n(pertuzumab) and Erb-hcAb (human anti-ErbB2-compact \nantibody), a novel fully human compact antibody produced in \nour laboratory. Herein, we demonstrate that the growth of both \nandrogen-dependent and independent prostate cancer cells \nwas efficiently inhibited by Erb-hcAb. The antitumor effects \ninduced by Erb-hcAb on some cell lines were more potent than \nthose observed for either Herceptin or 2C4. Thus, Erb-hcAb \ncould be a promising candidate in the immunotherapy of pros -\ntate cancer for which no obvious treatment has been reported \nso far.\nIntroduction\nProstate cancer is the second leading cause of cancer-related \ndeath among men in the USA. In 2005 it was the most \nfrequently diagnosed cancer, accounting for approximately \n33% of incident cases in men and 10% of deaths (1). Most of the patients with an advanced form of the disease at diagnosis \nare treated by systemic androgen ablation therapy. Initially, \nthe cancer is responsive to this type of treatment because it \nexhibits an androgen-sensitive phenotype (2). Unfortunately, \nat a later stage the cancer typically progresses in a form that \nno longer responds to androgen deprivation, thus becoming \nandrogen-independent. Androgen-independent prostate cancer \nis resistant to therapeutic interventions and ultimately leads to \nthe demise of the patient.\nThe mechanisms through which prostate cancer converts to \nandrogen independence are still unclear. It has been reported \nthat the onset of ErbB2 protein overexpression may coincide \nwith the emergence of androgen independence as the androgen \nreceptor can be activated by ErbB2 through the Akt pathway, \nthus promoting androgen-independent prostate cancer growth \nand survival (3).\nErbB2 (also known as HER2) is a transmembrane tyro -\nsine kinase member of the epidermal growth factor receptor \n(EGFR) family, overexpressed in many human cancer types. \nIn particular, ErbB2 is implicated in malignant transforma -\ntion and tumorigenesis (4,5), and is overexpressed in breast, \novary, prostate, non-small cell lung cancer and in several other \ncarcinomas (6-8), whereas on normal tissues it is not detect -\nable or it is expressed at very low levels (9). Owing to their \nrole in cancer pathogenesis, ErbB2 and EGFR have become \nimportant targets of anticancer therapy: many drugs have been \ndeveloped against one or both of these receptors.\nHerceptin (trastuzumab) is the only humanized monoclonal \nantibody available for the treatment of ErbB2-positive breast \ncancer since 1998 when it was approved by FDA, and is now \nused for the treatment of both metastatic and early-stage breast \ncancer (10,11). Although Herceptin significantly improves the \noutcome for patients with ErbB2-positive breast cancer, not all \nthe patients benefit from the treatment. A significant fraction \nof the patients do not respond at all, and most of the patients \nwho initially respond to Herceptin generally tend to develop \nresistance during treatment (12).\nFurthermore, carcinomas with a high expression of ErbB2, \nsuch as non-small cell lung carcinoma, gastric and prostate \ntumors, have been found to be resistant or much less sensitive', "immunoagents are active on trastuzumab-resistant tumours. Br J \nCancer 102: 513-519, 2010.\n24. Gianni L, Llado A, Bianchi G, et al: Open-label, phase II, multi -\ncenter, randomized study of the efficacy and safety of two dose \nlevels of Pertuzumab, a human epidermal growth factor receptor \n2 dimerization inhibitor, in patients with human epidermal \ngrowth factor receptor 2-negative metastatic breast cancer. J Clin \nOncol 28: 1131-1137, 2010.\n25. de Bono JS, Bellmunt J, Attard G, et al: Open-label phase II study \nevaluating the efficacy and safety of two doses of pertuzumab in \ncastrate chemotherapy-naive patients with hormone-refractory \nprostate cancer. J Clin Oncol 25: 257-262, 2007.\n26. Johnson BE and Janne PA: Rationale for a phase II trial of \npertuzumab, a HER-2 dimerization inhibitor, in patients with \nnon-small cell lung cancer. Clin Cancer Res 12: S4436-S4440, \n2006.\n27. Luftig MA, Mattu M, Di Giovine P, et al: Structural basis for \nHIV-1 neutralization by a gp41 fusion intermediate-directed \nantibody. Nat Struct Mol Biol 13: 740-747, 2006.\n28. Agus DB, Akita RW, Fox WD, et al: Targeting ligand-activated \nErbB2 signaling inhibits breast and prostate tumor growth. \nCancer Cell 2: 127-137, 2002.\n29. Borsi L, Balza E, Bestagno M, et al : Selective targeting of \ntumoral vasculature: comparison of different formats of an \nantibody (L19) to the ED-B domain of fibronectin. Int J Cancer \n102: 75-85, 2002.\n30. Heinlein CA and Chang C: Androgen receptor in prostate cancer. \nEndocr Rev 25: 276-308, 2004.\n31. Gregory CW, Whang YE, McCall W, et al: Heregulin-induced \nactivation of HER2 and HER3 increases androgen receptor \ntransactivation and CWR-R1 human recurrent prostate cancer \ncell growth. Clin Cancer Res 11: 1704-1712, 2005.\n32. Hynes NE, Horsch K, Olayioye MA and Badache A: The ErbB \nreceptor tyrosine family as signal integrators. Endocr Relat \nCancer 8: 151-159, 2001.\n33. El Sheikh SS, Domin J, Abel P, Stamp G and Lalani el-N: \nAndrogen-independent prostate cancer: potential role of \nandrogen and ErbB receptor signal transduction crosstalk. \nNeoplasia 5: 99-109, 2003.\n34. Solit DB and Rosen N: Targeting HER2 in prostate cancer: where \nto next? J Clin Oncol 25: 241-243, 2007.\n35. Troise F, Cafaro V, Giancola C, D'Alessio G and De Lorenzo C: \nDifferential binding of human immunoagents and Herceptin to \nthe ErbB2 receptor. FEBS J 275: 4967-4979, 2008.\n36. Troise F, Monti M, Merlino A, et al : A novel ErbB2 epitope \ntargeted by human antitumor immunoagents. FEBS J 278: \n1156 -1166, 2011.\n37. De Lorenzo C, Troise F, Cafaro V and D'Alessio G: Combinatorial \nexperimental protocols for Erbicin-derived immunoagents and \nHerceptin. Br J Cancer 97: 1354-1360, 2007.\n38. Scheuer W, Friess T, Burtscher H, Bossenmaier B, Endl J and \nHasmann M: Strongly enhanced antitumor activity of trastu -\nzumab and pertuzumab combination treatment on HER2-positive \nhuman xenograft tumor models. Cancer Res 69: 9330-9336, \n2009.", "Furthermore, carcinomas with a high expression of ErbB2, \nsuch as non-small cell lung carcinoma, gastric and prostate \ntumors, have been found to be resistant or much less sensitive \nto Herceptin treatment (13-15). Finally, large-scale clinical \nstudies with Herceptin have shown that it engenders cardiotox -\nicity (16,17), which occurs more frequently in patients treated Effects of a human compact anti-ErbB2 \nantibody on prostate cancer\nANGELA ELIANA MALARA1,  CARMINE FEDELE1,  LUIGI ALOJ2,  CLAUDIO ARRA3, \nPAOLO LACCETTI1,  GIUSEPPE D 'ALESSIO1  and  CLAUDIA DE LORENZO1\n1Department of Structural and Functional Biology, University of Naples  Federico II, I-80126 Naples ;  2Department of \nNuclear Medicine, 3SSD Animal Facility, IRCCS National Cancer Institute, G. Pascale Foundation, I-80131 Naples , Italy\nReceived January 19, 2012;  Accepted March 2, 2012\nDOI: 10.3892/or.2012.1760\nCorrespondence to:  Dr Claudia De Lorenzo, Department of \nStructural and Functional Biology, University of Naples Federico II, \nvia Cinthia, I-80126 Naples, Italy\nE-mail: cladelor@unina.it\nKey words:  ErbB2/Her2, prostate cancer, immunotherapy, \nHerceptin/trastuzumab, antibodies", "MALARA et al:  Anti-ErbB2 ANTIBODY FOR PROSTATE CANCER 302\nReferences\n  1. Jemal A, Murray T, Ward E, et al: Cancer statistics, 2005. CA \nCancer J Clin 55: 10-30, 2005.\n  2. Smith PC, Hobisch A, Lin DL, Culig Z and Keller ET: \nInterleukin-6 and prostate cancer progression. Cytokine Growth \nFactor Rev 12: 33-40, 2001.\n  3. Yeh S, Lin HK, Kang HY, Thin TH, Lin MF and Chang C: From \nHER2/Neu signal cascade to androgen receptor and its coacti -\nvators: a novel pathway by induction of androgen target genes \nthrough MAP kinase in prostate cancer cells. Proc Natl Acad Sci \nUSA 96: 5458-5463, 1999.\n  4. Graus-Porta D, Beerli RR, Daly JM and Hynes NE: ErbB-2, the \npreferred heterodimerization partner of all ErbB receptors, is a \nmediator of lateral signaling. EMBO J 16: 1647-1655, 1997.\n  5. Lohrisch C and Piccart M: HER2/neu as a predictive factor in \nbreast cancer. Clin Breast Cancer 2: 129-137, 2001.\n  6. Fukushige S, Matsubara K, Yoshida M, et al: Localization of a \nnovel v-erbB-related gene, c-erbB-2, on human chromosome 17 \nand its amplification in a gastric cancer cell line. Mol Cell Biol 6: \n955-958, 1986.\n  7. Semba K, Kamata N, Toyoshima K and Yamamoto T: A v-erbB-\nrelated protooncogene, c-erbB-2, is distinct from the c-erbB-1/\nepidermal growth factor-receptor gene and is amplified in a \nhuman salivary gland adenocarcinoma. Proc Natl Acad Sci USA \n82: 6497-6501, 1985.\n  8. Slamon DJ, Godolphin W, Jones LA, et al: Studies of the HER-2/\nneu proto-oncogene in human breast and ovarian cancer. Science \n244: 707-712, 1989.\n  9. Press MF, Cordon-Cardo C and Slamon DJ: Expression of the \nHER-2/neu proto-oncogene in normal human adult and fetal \ntissues. Oncogene 5: 953-962, 1990.\n10. Romond EH, Perez EA, Bryant J, et al: Trastuzumab plus adjuvant \nchemotherapy for operable HER2-positive breast cancer. N Engl \nJ Med 353: 1673-1684, 2005.\n11. Stebbing J, Copson E and O'Reilly S: Herceptin (trastuzamab) in \nadvanced breast cancer. Cancer Treat Rev 26: 287-290, 2000.\n12. Nahta R and Esteva FJ: Herceptin: mechanisms of action and \nresistance. Cancer Lett 232: 123-138, 2006.\n13. Agus DB, Scher HI, Higgins B, et al: Response of prostate cancer \nto anti-Her-2/neu antibody in androgen-dependent and -inde -\npendent human xenograft models. Cancer Res 59: 4761-4764, \n1999.\n14. Clamon G, Herndon J, Kern J, et al: Lack of trastuzumab activity \nin non-small cell lung carcinoma with overexpression of erb-B2: \n39810: a phase II trial of Cancer and Leukemia Group B. Cancer \n103: 1670-1675, 2005.\n15. Gong SJ, Jin CJ, Rha SY and Chung HC: Growth inhibitory \neffects of trastuzumab and chemotherapeutic drugs in gastric \ncancer cell lines. Cancer Lett 214: 215-224, 2004.\n16. Chien KR: Myocyte survival pathways and cardiomyopathy: \nimplications for trastuzumab cardiotoxicity. Semin Oncol 27: \n9-100, 2000.\n17. Sparano JA: Cardiac toxicity of trastuzumab (Herceptin): impli -\ncations for the design of adjuvant trials. Semin Oncol 28: 20-27, \n2001.\n18. Schneider JW, Chang AY and Rocco TP: Cardiotoxicity in signal \ntransduction therapeutics: erbB2 antibodies and the heart. Semin \nOncol 28: 18-26, 2001.\n19. De Lorenzo C, Tedesco A, Terrazzano G, et al : A human, \ncompact, fully functional anti-ErbB2 antibody as a novel anti-\ntumour agent. Br J Cancer 91: 1200-1204, 2004.\n20. De Lorenzo C, Palmer DB, Piccoli R, Ritter MA and D'Alessio G: \nA new human antitumor immunoreagent specific for ErbB2. Clin \nCancer Res 8: 1710-1719, 2002.21. De Lorenzo C and D'Alessio G: Human anti-ErbB2 immuno -\nagents - immunoRNases and compact antibodies. FEBS J 276: \n1527-1535, 2009.\n22. Riccio G, Esposito G, Leoncini E, et al : Cardiotoxic effects, \nor lack thereof, of anti-ErbB2 immunoagents. FASEB J 23: \n3171-3178, 2009.\n23. Gelardi T, Damiano V, Rosa R, et al: Two novel human anti-ErbB2 \nimmunoagents are active on trastuzumab-resistant tumours. Br J \nCancer 102: 513-519, 2010.\n24. Gianni L, Llado A, Bianchi G, et al: Open-label, phase II, multi -", 'INTERNATIONAL JOURNAL OF ONCOLOGY  40:  1881-1888,  2012\nAbstract.  The purpose of this study was to determine thera -\npeutic effects and systemic toxicity of 212Pb-trastuzumab in \nan orthotopic model of human prostate cancer cells in nude \nmice. TCMC-Trastuzumab was radiolabeled with 212Pb. The \n212Pb-trastuzumab generated from the procedure was intact \nand had high binding affinity with a dissociation constant (of \n3.9±0.99 nM. PC-3MM2 cells, which expressed a lower level \nof HER2 both in culture and in tumors, were used in therapy \nstudies. A single intravenous injection of 212Pb-trastuzumab \nreduced tumor growth by 60-80%, reduced aortic lymph node \nmetastasis, and prolonged the survival of tumor-bearing mice. \nTreatment with 212Pb-trastuzumab did not cause significant \nchanges in body weight, serum glutamic pyruvic transaminase \n(SGPT), blood urea nitrogen (BUN), hematological profiles, \nand histological morphology of several major organs of tumor-\nbearing mice. These findings suggest that a systemic delivery of \n212Pb-trastuzumab could be an effective modality for manage -\nment of advanced human prostate cancer.\nIntroduction\nProstate cancer is the most common cancer and the second most \ncommon cause of cancer death among men in the United States \n(1). As detection techniques improve, more patients are diag -\nnosed with localized disease and can be cured by either surgery \nor radiation therapy. Metastasis in many patients, however, \nstill occurs prior to the initial diagnosis. Because of natural \nresistance to most chemotherapeutic agents, hormonal therapy is the mainstay treatment for advanced diseases, however, this \ntreatment is only palliative: delaying tumor progression to \ncastration-refractory prostate cancer (CRPC) by an average of \nless than 18 months (2,3). Currently, there are limited effective \ntherapies for management of advanced CRPC. Thus, there is a \ngreat need to develop novel and more effective therapies in this \nsetting.\nNumerous studies have clearly documented significant \ncontribution of HER2/EGFR signaling in the progression of \nhuman prostate cancer and HER2 overexpression in prostate \ncancer occurs at relevant frequency without gene amplifica -\ntion. Increased HER2 expression correlates with an aggressive \nbehavior of tumor cells through stimulation of tumor cell prolif -\neration and was associated with Ki67 labeling index (4). HER2 \nis overexpressed in approximately 20-30% of prostate cancers \nand in 78% of androgen-independent cancers (5). It is, therefore, \npreferentially expressed in hormone-refractory and metastatic \nprostate cancers (6). The pretreatment serum HER2 and its \nextracellular domain (HER2 ECD) values were shown to be \nindependent predictors of biochemical recurrence of prostate \ncancer (7,8) and were associated with prostate cancer progres -\nsion after radical prostatectomy (9,10). Moreover, chronic \ntreatment with bicalutamide induced overexpression of HER2 \nand a reduction of PTEN and EGFR/HER2 ratio, which was \nassociated with an increase in Akt and Erk activity (11,12). \nIn addition to stimulation of tumor cell proliferation through \nHER2/EGFR signaling, HER2 also contributes to prostate \ncancer progression through stabilizing AR protein in the \nabsence of androgen (13) phosphorylating and trans-activating \nAR transactivation (14-16), as well as crosstalking with TrkA in \na subset of prostate cancer cells (17).\nPreclinical therapy studies showed that downregulation \nof HER2 expression and activation by BN/GRPR inhibitors \nAN-215 and RC-3095 inhibited growth of LNCaP and PC-3 \nhuman prostate cancer cells (18). Moreover, inhibitory effects of \nEGFR inhibitor erlotinib were much more potent on androgen-\nsensitive prostate cancer cells when compared to those on CRPC Significant systemic therapeutic effects of high-LET \nimmunoradiation by 212Pb-trastuzumab against  \nprostatic tumors of androgen-independent \nhuman prostate cancer in mice']</t>
         </is>
       </c>
     </row>
@@ -675,7 +677,7 @@
 5. Epiregulin (EPR)
 6. Transforming growth factor-α (TGF-α)
 7. Epigen (EPG)
-The passage states that these seven ligands are known to bind to EGFR, with binding affinities ranging from sub-nanomolar to near micromolar dissociation constants. The ligands are categorized into high affinity (EGF, TGF-α, HB-EGF, and BTC) and low affinity (AR, EPR, and EPG) groups based on their binding strengths to EGFR.</t>
+The passage states that "Seven ligands are known to bind EGFR" and then lists these 7 specific ligands. It notes that they all share a common EGF-like motif structure and are synthesized as transmembrane proteins that are cleaved to produce soluble growth factors.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -707,12 +709,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Based on the context provided, orteronel was developed for the treatment of castration-resistant prostate cancer (CRPC). Specifically:
-- The study described was a phase 1 trial evaluating orteronel in "Japanese patients with castration-resistant prostate cancer (CRPC)".
+          <t>Based on the context provided, orteronel (TAK-700) was developed for the treatment of castration-resistant prostate cancer (CRPC). Specifically:
+- The study described is a phase 1 trial of orteronel in "Japanese patients with castration-resistant prostate cancer (CRPC)".
 - It states that orteronel is "a non-steroidal, selective, reversible inhibitor of 17,20-lyase" which is an enzyme involved in androgen synthesis. 
-- The introduction discusses how orteronel may represent a new therapeutic option for patients with CRPC by inhibiting extragonadal androgen synthesis.
-- The eligibility criteria included patients with confirmed prostate adenocarcinoma and rising PSA levels despite castration levels of testosterone, which are characteristics of CRPC.
-So in summary, orteronel was developed specifically as a potential treatment for castration-resistant prostate cancer.</t>
+- The introduction discusses how CRPC cells can continue to produce androgens even after androgen deprivation therapy, and how targeting androgen synthesis pathways like CYP17A1 (which includes 17,20-lyase) is a therapeutic approach for CRPC.
+- The patients enrolled had confirmed prostate adenocarcinoma that was progressing despite castrate levels of testosterone, which is the definition of CRPC.
+So in summary, orteronel was specifically developed as a treatment for castration-resistant prostate cancer by inhibiting androgen synthesis in these tumors.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -745,12 +747,12 @@
       <c r="C9" t="inlineStr">
         <is>
           <t>Based on the information provided in the context, Pannexin1 (Panx1) is located:
-1. At the plasma membrane of cells. The context states that "Panx1 is fully N-glycosylated and transported to the cell membrane".
+1. At the plasma membrane of cells. The passage states that "Panx1 is fully N-glycosylated and transported to the cell membrane".
 2. In intracellular stores characteristic of anterograde protein trafficking. 
-3. In neurons and astrocytes in the central nervous system. The context mentions "Panx1 channels play an important role in the nervous system since they are expressed in significant levels in neurons and astrocytes".
+3. In neurons and astrocytes in the central nervous system. The text mentions "Panx1 channels play an important role in the nervous system since they are expressed in significant levels in neurons and astrocytes".
 4. Specifically in the outer plexiform layer (OPL) of the zebrafish retina, in a band-like pattern representing horizontal cells.
-5. In the plasma membrane when expressed exogenously in cell lines like N2a cells.
-So in summary, Pannexin1 is primarily localized to the plasma membrane of cells, as well as in some intracellular compartments involved in protein trafficking to the cell surface. It is found in both neurons and glial cells in the nervous system.</t>
+5. In the plasma membrane when exogenously expressed in cell lines like N2a cells.
+So in summary, Pannexin1 is primarily localized to the plasma membrane of cells, including neurons and astrocytes, as well as in some intracellular compartments involved in protein trafficking to the cell surface. Its specific localization can vary somewhat depending on the cell type and organism studied.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -787,7 +789,7 @@
 The passage states:
 "Pyridostigmine bromide is the most commonly used drug. Other acetylcholinesterase inhibitors such as neostigmine are rarely used because of their poorer pharmacodynamic profiles and tolerability."
 It also mentions that pyridostigmine was found to be more effective with fewer adverse events compared to neostigmine in observational studies of myasthenia gravis patients.
-So pyridostigmine bromide is the primary acetylcholinesterase inhibitor used, while neostigmine is sometimes used but less commonly due to poorer tolerability and effectiveness.</t>
+So while neostigmine is mentioned as another acetylcholinesterase inhibitor, pyridostigmine bromide is described as the primary and most commonly used acetylcholinesterase inhibitor for treating myasthenia gravis.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -821,10 +823,10 @@
         <is>
           <t>Based on the context provided, the Yamanaka factors are:
 1. Oct4 (also referred to as Oct3/4)
-2. Sox2 
+2. Sox2  
 3. Klf4
 4. c-Myc
-These four transcription factors are described as the "Yamanaka factors" in the passage. They are highly expressed in embryonic stem (ES) cells and their overexpression can induce pluripotency in somatic cells, generating induced pluripotent stem (iPS) cells. The study analyzes the target genes and signaling pathways regulated by these four Yamanaka factors in mouse ES cells.</t>
+These four transcription factors are described as the "Yamanaka factors" that are highly expressed in embryonic stem cells and can induce pluripotency when overexpressed in somatic cells. The study analyzes the target genes and regulatory networks of these four endogenous Yamanaka factors in mouse embryonic stem cells.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -860,8 +862,9 @@
 1. NOTCH1
 2. NOTCH3 
 3. NOTCH4
-The passage mentions that "NOTCH1 and NOTCH4 are also expressed in blood vessels and A7R5 smooth muscle cells" in addition to NOTCH3, which is the main focus of the study. It also states that "the ectodomains of these isoforms of NOTCH, like NOTCH3, are composed of a large number of EGF-like domain repeats."
-So the mammalian Notch receptor family includes at least NOTCH1, NOTCH3, and NOTCH4 isoforms. The passage does not explicitly mention NOTCH2, but it is likely there are four mammalian Notch receptors in total (NOTCH1-4), based on general knowledge of the Notch signaling pathway.</t>
+The passage mentions that NOTCH1, NOTCH3, and NOTCH4 are expressed in blood vessels and A7R5 smooth muscle cells. Specifically, it states:
+"NOTCH1 and NOTCH4 are also expressed in blood vessels and A7R5 smooth muscle cells [53,54,55,56] (data not shown). The ectodomains of these isoforms of NOTCH, like NOTCH3, are composed of a large number of EGF-like domain repeats."
+So the main Notch receptor isoforms discussed in this context are NOTCH1, NOTCH3, and NOTCH4. The passage focuses particularly on studying NOTCH3, but indicates these other isoforms are also present in the relevant cell types.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -893,12 +896,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Based on the context provided, the following mitochondrial diseases have been attributed to POLG mutations:
-1. Progressive external ophthalmoplegia (PEO) - Both autosomal dominant and recessive forms of PEO can be caused by POLG mutations. PEO is characterized by weakness of the eye muscles and is often associated with other symptoms.
-2. A condition mimicking mitochondrial neurogastrointestinal encephalomyopathy (MNGIE) - The report describes patients with features resembling MNGIE who were found to have POLG mutations rather than the typical thymidine phosphorylase mutations seen in MNGIE. 
-3. Conditions with multiple mitochondrial DNA deletions - POLG mutations can lead to multiple mtDNA deletions in skeletal muscle.
-4. Syndromes involving some combination of:
-- Axonal sensory ataxic neuropathy
+          <t>Based on the information provided in the context, POLG mutations have been associated with the following mitochondrial diseases:
+1. Progressive external ophthalmoplegia (PEO) - Both autosomal dominant and autosomal recessive forms of PEO can be caused by POLG mutations.
+2. A condition mimicking mitochondrial neurogastrointestinal encephalomyopathy (MNGIE) - The report describes patients with features resembling MNGIE who had POLG mutations rather than the typical TP mutations.
+3. A heterogeneous group of disorders characterized by PEO and other variable features, which may include:
+- Axonal sensory neuropathy
 - Sensory ataxia  
 - Cardiomyopathy
 - Retinopathy
@@ -906,10 +908,9 @@
 - Thalamic lesions
 - Muscle dystrophy
 - Facial diplegia
-- Dysarthria
+- Dysarthria 
 - Dysphagia
-The report notes that recessive POLG mutations can cause a heterogeneous clinical phenotype involving various combinations of these features along with PEO.
-The context does not provide an exhaustive list, but these are the key mitochondrial disease phenotypes attributed to POLG mutations based on the information given.</t>
+The context notes that the clinical phenotype of recessive PEO patients with POLG mutations is quite heterogeneous, with PEO and axonal sensory neuropathy being common features, but other associated symptoms varying considerably between patients.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -947,13 +948,13 @@
 3. miR-200c
 4. miR-141
 5. miR-100
-Key points:
+Specifically:
 - miR-200a, miR-200b, miR-200c, and miR-141 were consistently up-regulated in EOC in multiple studies. These all belong to the miR-200 family.
 - miR-100 was consistently down-regulated in EOC in multiple studies.
 - In serum samples, miR-200a, miR-200b and miR-200c levels were significantly higher in EOC patients compared to healthy controls. 
-- The combination of miR-200b + miR-200c normalized to serum volume and miR-103 was the best predictive classifier of EOC.
-- These miRNAs could potentially be used as diagnostic biomarkers to improve early detection of EOC when added to current testing methods.
-So in summary, the miR-200 family members (especially miR-200b and miR-200c) appear to be the most promising potential biomarkers for EOC based on the evidence presented. miR-100 may also have potential as a down-regulated biomarker.</t>
+- The combination of miR-200b + miR-200c normalized to serum volume and miR-103 was found to be the best predictive classifier of serous EOC.
+- miR-103 was identified as a potential endogenous normalizer for serum miRNA measurements.
+So in summary, members of the miR-200 family (especially miR-200b and miR-200c) appear to be the most promising potential biomarkers for EOC based on the evidence presented. miR-100 may also have potential as a down-regulated biomarker. Further validation studies are needed to confirm their clinical utility.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
